--- a/data.xlsx
+++ b/data.xlsx
@@ -8,58 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasha\EcommerceScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A130BE98-033E-4B7C-8D6D-F3C6C96E018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D73310-B98D-4712-8770-A1DA4E134D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All URLs" sheetId="1" r:id="rId1"/>
-    <sheet name="Amazon - Raw" sheetId="2" r:id="rId2"/>
-    <sheet name="Flipkart - Raw" sheetId="3" r:id="rId3"/>
+    <sheet name="Flipkart URL" sheetId="4" r:id="rId1"/>
+    <sheet name="Amazon URL" sheetId="5" r:id="rId2"/>
+    <sheet name="Amazon - Raw" sheetId="2" r:id="rId3"/>
+    <sheet name="Flipkart - Raw" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>Amazon URL</t>
-  </si>
-  <si>
-    <t>Flipkart URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="130">
   <si>
     <t>Brand</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>https://www.amazon.in/Ambrane-Dots-Play-Ultra-Low-Bluetooth/product-reviews/B09R23TNKF/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
   </si>
   <si>
     <t>https://www.amazon.in/TW2S-Technology-Waterproof-Ultra-Long-Microphone/product-reviews/B09YR25B2G/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
   </si>
   <si>
-    <t>https://www.flipkart.com/ambrane-dots-play-bluetooth-headset/p/itm6ca0e1faefbb2?pid=ACCGBFQ7HUYFWZE8&amp;lid=LSTACCGBFQ7HUYFWZE8NRGQG1&amp;marketplace=FLIPKART&amp;q=ambrane+dots+play&amp;store=search.flipkart.com&amp;srno=s_1_1&amp;otracker=search&amp;otracker1=search&amp;iid=3807ecd6-e70a-45b7-b96a-776124be2ef2.ACCGBFQ7HUYFWZE8.SEARCH&amp;ssid=4j1kh261rk0000001672833263399&amp;qH=2780028f5ff54f24</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/edyell-c5m-blue-true-wireless-bluetooth-headset/p/itmd9dd5a27bb9e2?pid=ACCG7CGYANF7JZFD&amp;lid=LSTACCG7CGYANF7JZFDIGRHBH&amp;marketplace=FLIPKART&amp;q=edyell+c5m&amp;store=search.flipkart.com&amp;srno=s_1_1&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=69994c8e-a806-426d-ba7e-d9d01783b57c.ACCG7CGYANF7JZFD.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;ssid=23nckvr02o0000001672824621701&amp;qH=3e07fb8aaa7b42be</t>
-  </si>
-  <si>
     <t>Ambrane</t>
   </si>
   <si>
-    <t>Edyell</t>
-  </si>
-  <si>
-    <t>Dots Play</t>
-  </si>
-  <si>
-    <t>C5M</t>
-  </si>
-  <si>
     <t>Rev - 4/1</t>
   </si>
   <si>
@@ -88,13 +65,361 @@
   </si>
   <si>
     <t>44</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>FUR JADEN AirJams</t>
+  </si>
+  <si>
+    <t>FUR JADEN AirJams Gamex Pro</t>
+  </si>
+  <si>
+    <t>Wings Phantom 105</t>
+  </si>
+  <si>
+    <t>Wings Phantom 550</t>
+  </si>
+  <si>
+    <t>Wings Phantom 250</t>
+  </si>
+  <si>
+    <t>truke BTG Alpha</t>
+  </si>
+  <si>
+    <t>truke BTG3</t>
+  </si>
+  <si>
+    <t>WeCool Freesolo  x3</t>
+  </si>
+  <si>
+    <t>DEFY Gravity Turbo</t>
+  </si>
+  <si>
+    <t>Wings Phantom 500</t>
+  </si>
+  <si>
+    <t>truke BTG1</t>
+  </si>
+  <si>
+    <t>Wings Phantom Pro</t>
+  </si>
+  <si>
+    <t>Wings Phantom Gaming</t>
+  </si>
+  <si>
+    <t>ACESCREEN GRAND</t>
+  </si>
+  <si>
+    <t>ACESCREEN AC10</t>
+  </si>
+  <si>
+    <t>AceScreen AC10</t>
+  </si>
+  <si>
+    <t>ACESCREEN M10</t>
+  </si>
+  <si>
+    <t>Aroma NB137</t>
+  </si>
+  <si>
+    <t>SpinBot BattleBudz GX10</t>
+  </si>
+  <si>
+    <t>Mytrack Gaming (1)</t>
+  </si>
+  <si>
+    <t>Wings X-Fire Gaming</t>
+  </si>
+  <si>
+    <t>Ambrane Dots</t>
+  </si>
+  <si>
+    <t>FUR JADEN AirJams GameX</t>
+  </si>
+  <si>
+    <t>MyTrack Gaming (2)</t>
+  </si>
+  <si>
+    <t>Cocu TWS GAMING</t>
+  </si>
+  <si>
+    <t>ZEBRONICS Zeb-Sound Bomb G1</t>
+  </si>
+  <si>
+    <t>PTron Bassbuds Jade</t>
+  </si>
+  <si>
+    <t>WeCool Moonwalk M4</t>
+  </si>
+  <si>
+    <t>Wings Phantom 100</t>
+  </si>
+  <si>
+    <t>Cocu YELLOW GAMING EARBUDS</t>
+  </si>
+  <si>
+    <t>Matlek Gaming Earbuds</t>
+  </si>
+  <si>
+    <t>Wings Hawk</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wings-Wireless-Bluetooth-Earphones-Controls/product-reviews/B08T96R3XJ/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Bassbuds-Rush-Bluetooth-Wireless-Assistant/product-reviews/B0BFRK2BZV/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>Wings</t>
+  </si>
+  <si>
+    <t>pTron</t>
+  </si>
+  <si>
+    <t>Wecool Moonwalk M4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wecool-Moonwalk-M4-Bluetooth-Wireless/product-reviews/B09HZFCB89/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>WeCool</t>
+  </si>
+  <si>
+    <t>TAGG Rogue 500GT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/TAGG-Rogue-500GT-Environmental-Cancellation/product-reviews/B09YY4KWSN/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>Tagg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/truke-Playtime-Dual-Mic-Speakers-Bluetooth/product-reviews/B0B3MY21T8/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>Truke</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wings-Phantom-Indicator-Bluetooth-Playtime/product-reviews/B09MDCZJXS/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Rogue-Bluetooth-Wireless-Earbuds-Playtime/product-reviews/B0B14SGH8F/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>TAGG Rogue 100Gt</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wings-Phantom-Wireless-Playtime-Bluetooth/product-reviews/B0B9WVTR2R/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>Wings Phantom 260</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Matlek-Defenders-Gaming-Earbuds-Bluetooth/product-reviews/B09NQB4LMS/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>pTron Bassbuds Rush</t>
+  </si>
+  <si>
+    <t>Wings Phantom</t>
+  </si>
+  <si>
+    <t>Matlek Defenders</t>
+  </si>
+  <si>
+    <t>Matlek</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/boAt-Airdopes-190-Breathing-Signature/product-reviews/B0BBTYBLJV/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>boAt Airdopes 190</t>
+  </si>
+  <si>
+    <t>boAt</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Launched-Wings-Playtime-Bluetooth-Resistance/product-reviews/B09PTCL27V/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wings-Phantom-Bluetooth-Wireless-Earbuds/product-reviews/B09MDCLMXG/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/truke-Bluetooth-Truly-Wireless-Earbuds/product-reviews/B09B2LL1P4/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>truke BTG 2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Rogue-Bluetooth-Wireless-Earbuds-Latency/product-reviews/B09SG1XF1S/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>TAGG Rogue 200Gt</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wings-Vulcan-Bluetooth-Wireless-Earbuds/product-reviews/B09CTS38SY/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>Wings Vulcan</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SpinBot-BattleBudz-Wireless-Bluetooth-Earbuds/product-reviews/B0BDWQYLSS/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>SpinBot</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Zebronics-Zeb-Sound-G1-Earbuds-Assistant/product-reviews/B09NNVHPHY/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>Zebronics</t>
+  </si>
+  <si>
+    <t>Zebronics Zeb-Sound Bomb G1</t>
+  </si>
+  <si>
+    <t>EDYELL C5M</t>
+  </si>
+  <si>
+    <t>EDYELL</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Bassbuds-Jade-Headphone-Cancellation-Waterproof/product-reviews/B09BNZLTDZ/ref=cm_cr_dp_d_show_all_btm?ie=UTF8&amp;reviewerType=all_reviews</t>
+  </si>
+  <si>
+    <t>pTron Bassbuds Jade</t>
+  </si>
+  <si>
+    <t>Ambrane Dots Play</t>
+  </si>
+  <si>
+    <t>Fur Jaden</t>
+  </si>
+  <si>
+    <t>Aroma</t>
+  </si>
+  <si>
+    <t>AceScreen</t>
+  </si>
+  <si>
+    <t>Cocu</t>
+  </si>
+  <si>
+    <t>MyTrack</t>
+  </si>
+  <si>
+    <t>Defy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UR</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/fur-jaden-airjams-13mm-hd-dynamic-driver-thumping-bass-enc-calling-touch-controls-5-2-bluetooth-gaming-headset/p/itm1c429caef8b26?pid=ACCGHCHUHCXH4XVT&amp;lid=LSTACCGHCHUHCXH4XVT7HHRRN&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_32&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=en_P%2Fa%2BCfjJiW%2Fp0petH2N09HbY%2Ft9sMRD7Gt7PGOisphignil9Y5aBEJRYDEonbx7UgDmxTFwrXWUH7%2FysvTjFXA%3D%3D&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/fur-jaden-airjams-gamex-pro-enc-hd-calling-deep-bass-low-latency-gaming-mode-5-2-bluetooth-headset/p/itmc4e5bccfd0619?pid=ACCGFHNKGCKGQUCZ&amp;lid=LSTACCGFHNKGCKGQUCZPOUH6W&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_2_58&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=9864669a-d7c7-4e24-a180-18fe28760cfb.ACCGFHNKGCKGQUCZ.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wings-phantom105-gaming-earbuds-enc-60-hours-playtime-rgb-light-bluetooth-headset/p/itm7b482b0a916cc?pid=ACCGBFSBEMGPPC7G&amp;lid=LSTACCGBFSBEMGPPC7GFAAL0R&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_7&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCGBFSBEMGPPC7G.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wings-phantom-550-gaming-tws-earbuds-45hr-playtime-touch-controls-bluetooth-headset/p/itmbbf2fadca87d7?pid=ACCGGURARZVBKZ8H&amp;lid=LSTACCGGURARZVBKZ8HVZRWXW&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_10&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCGGURARZVBKZ8H.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wings-phantom-250-gaming-tws-earbuds-40ms-low-latency-30-hours-playtime-bluetooth-headset/p/itm2424b8c91c9e8?pid=ACCGDQ6SBHCVHMCG&amp;lid=LSTACCGDQ6SBHCVHMCGCQRUQ1&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_4&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCGDQ6SBHCVHMCG.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/truke-btg-alpha-gaming-tws-38h-playtime-7rgb-leds-aac-codec-instant-pairing-bluetooth-headset/p/itmdb8f32b8d0ee0?pid=ACCGF4JZSEMSBZRY&amp;lid=LSTACCGF4JZSEMSBZRYENUA9U&amp;marketplace=FLIPKART&amp;q=gaming%20earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_13&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCGF4JZSEMSBZRY.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/truke-btg3-gaming-earbuds-48h-playtime-enc-55ms-latency-10mm-driver-aac-codec-bluetooth-headset/p/itm63d9045801104?pid=ACCG92R6Z37YVHRJ&amp;lid=LSTACCG92R6Z37YVHRJDTD07E&amp;marketplace=FLIPKART&amp;q=gaming%20earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_11&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCG92R6Z37YVHRJ.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wecool-freesolo-x3-bluetooth-gaming-earbuds-headset/p/itm0a4d40fd04e54?pid=ACCGAGYYAGTSQ892&amp;lid=LSTACCGAGYYAGTSQ892X38THO&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_37&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCGAGYYAGTSQ892.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/defy-gravity-turbo-low-latency-gaming-30-hours-playback-led-lights-bluetooth-headset/p/itm04a7f0c4b8be9?pid=ACCGC2MX6ZMWDGFC&amp;lid=LSTACCGC2MX6ZMWDGFCNHVU6G&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_2_47&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=9864669a-d7c7-4e24-a180-18fe28760cfb.ACCGC2MX6ZMWDGFC.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wings-phantom-500-enc-40-ms-latency-bluetooth-headset/p/itm472a279db126b?pid=ACCG8M6GMTQYXXHK&amp;lid=LSTACCG8M6GMTQYXXHKWQEAH2&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_38&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCG8M6GMTQYXXHK.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/truke-btg1-gaming-earbuds-48h-playtime-quad-mic-enc-13mm-driver-aac-codec-bluetooth-headset/p/itm5bca4567be1ed?pid=ACCG5BDHUHJCZ4CG&amp;lid=LSTACCG5BDHUHJCZ4CGYZPEN9&amp;marketplace=FLIPKART&amp;q=gaming%20earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_1&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=en_z3mNRUYr%2BLTL7VQJZo%2B6LlpUdFUQXqf7K28lfODSDgaSSx31eo9uUkYdWDEIFou698E94h4mBdkajZwZrFUUEA%3D%3D&amp;ppt=sp&amp;ppn=sp&amp;ssid=4150mne8e80000001669463039065&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wings-phantom-pro-gaming-tws-40-hrs-playtime-50ms-low-latency-bluetooth-5-3-headset/p/itm9ceff01aba2bd?pid=ACCG4XTZKH5GFPVD&amp;lid=LSTACCG4XTZKH5GFPVDIWEWLF&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_3&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCG4XTZKH5GFPVD.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wings-phantom-gaming-tws-50ms-low-latency-bluetooth-5-3-headset/p/itm35312d3099ce5?pid=ACCGF8EWXCCWXWJZ&amp;lid=LSTACCGF8EWXCCWXWJZ3T0T5Q&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_6&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCGF8EWXCCWXWJZ.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/acescreen-ac10-tws-bluetooth-headphones-earbuds-wireless-gaming-headset/p/itma249f578be7b2?pid=ACCGG5MFHYRTG3WR&amp;lid=LSTACCGG5MFHYRTG3WRNAOGDY&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_12&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=en_P%2Fa%2BCfjJiW%2Fp0petH2N09HbY%2Ft9sMRD7Gt7PGOisphji1jgDjluhUEx758uBMmSA3Fg5GcC0RTciWMjOBPobIA%3D%3D&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/acescreen-ac10-tws-bluetooth-headphones-earbuds-wireless-gaming-headset/p/itma249f578be7b2?pid=ACCGG5MFHYRTG3WR&amp;lid=LSTACCGG5MFHYRTG3WRNAOGDY&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_2_43&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=9864669a-d7c7-4e24-a180-18fe28760cfb.ACCGG5MFHYRTG3WR.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/aroma-nb137-union-wireless-earbuds-bluetooth-headset/p/itme83281d2ae9f4?pid=ACCGA3GSGAUZVGPE&amp;lid=LSTACCGA3GSGAUZVGPEU06YA2&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_18&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6f487912-ba5f-4319-ab11-f551bfb3cdf4.ACCGA3GSGAUZVGPE.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/spinbot-battlebudz-gx10-gaming-tws-earbuds-50ms-low-latency-30-hours-playtime-bluetooth-headset/p/itma31436238e16f?pid=ACCGG46G49BUZG5E&amp;lid=LSTACCGG46G49BUZG5ECLXVAA&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_2_59&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=9864669a-d7c7-4e24-a180-18fe28760cfb.ACCGG46G49BUZG5E.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mytrack-low-latency-gaming-deep-bass-microphone-v5-0-10-hrs-battery-backup-bluetooth-headset/p/itm3cf216cc6839c?pid=ACCGAM73JBUBGNZH&amp;lid=LSTACCGAM73JBUBGNZHEMJYGD&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_2_63&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=9864669a-d7c7-4e24-a180-18fe28760cfb.ACCGAM73JBUBGNZH.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wings-x-fire-gaming-tws-25-hrs-playtime-bluetooth-headset/p/itm0267364b6c9bc?pid=ACCG4XTZTBY4YMVV&amp;lid=LSTACCG4XTZTBY4YMVVJF3VGP&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_2_61&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=9864669a-d7c7-4e24-a180-18fe28760cfb.ACCG4XTZTBY4YMVV.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/ambrane-dots-play-bluetooth-headset/p/itm6ca0e1faefbb2?pid=ACCGBFQ7HUYFWZE8&amp;lid=LSTACCGBFQ7HUYFWZE8NRGQG1&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_2_66&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=9864669a-d7c7-4e24-a180-18fe28760cfb.ACCGBFQ7HUYFWZE8.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/fur-jaden-airjams-gamex-bluetooth-5-2-gaming-headphone-wireless-earbuds-headset/p/itmda2bc4c62e99c?pid=ACCGA2AGX2ABHGNR&amp;lid=LSTACCGA2AGX2ABHGNRY4Z4R0&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_2_75&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=9864669a-d7c7-4e24-a180-18fe28760cfb.ACCGA2AGX2ABHGNR.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/mytrack-low-latency-gaming-deep-bass-microphone-v5-0-10-hrs-battery-bluetooth-headset/p/itm7a36f54e5251b?pid=ACCGGWQFNDKNJZWT&amp;lid=LSTACCGGWQFNDKNJZWT7JZOGO&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_3_89&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=cc2aa076-ea0d-404d-b50d-3d4a1f636c93.ACCGGWQFNDKNJZWT.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/cocu-tws-gaming-listning-dual-mode-bluetooth-earbuds-20hr-playtime-low-latency-headset/p/itm9a6d79936df13?pid=ACCGCMUYXY4FPHHH&amp;lid=LSTACCGCMUYXY4FPHHHIFG4BO&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_3_114&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=cc2aa076-ea0d-404d-b50d-3d4a1f636c93.ACCGCMUYXY4FPHHH.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/zebronics-zeb-sound-bomb-g1-gaming-tws-50ms-low-latency-game-mode-bluetooth-headset/p/itm99f2dea7ea703?pid=ACCGAPP3A4V537TG&amp;lid=LSTACCGAPP3A4V537TGHI9COP&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_3_118&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=cc2aa076-ea0d-404d-b50d-3d4a1f636c93.ACCGAPP3A4V537TG.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/ptron-bassbuds-jade-bluetooth-gaming-headset/p/itm6233939bef05b?pid=ACCG9SF5VWAKVJGV&amp;lid=LSTACCG9SF5VWAKVJGV6JHKMP&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_3_117&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=cc2aa076-ea0d-404d-b50d-3d4a1f636c93.ACCG9SF5VWAKVJGV.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wecool-moonwalk-m4-gaming-earbuds-60ms-low-latency-bluetooth-headset/p/itm4a756abb66e3b?pid=ACCGBHUQHRG6YPS2&amp;lid=LSTACCGBHUQHRG6YPS2H8SH1D&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_4_122&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6105585a-8278-46a0-a436-5cffca2367e9.ACCGBHUQHRG6YPS2.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wings-phantom100-gaming-earbuds-enc-40-hours-playtime-rgb-light-bluetooth-headset/p/itm2f1ad51099831?pid=ACCGBFSBYBETGYHD&amp;lid=LSTACCGBFSBYBETGYHDLU5W0X&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_4_145&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6105585a-8278-46a0-a436-5cffca2367e9.ACCGBFSBYBETGYHD.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/cocu-yellow-gaming-earbuds-20-hr-play-time-dual-mode-bluetooth-headset/p/itm08bb8b3b2130e?pid=ACCGFFD9WZT54K5W&amp;lid=LSTACCGFFD9WZT54K5WERYF0L&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_5_174&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=902822d0-e210-4716-85f1-de2f72d318ba.ACCGFFD9WZT54K5W.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/matlek-gaming-earbuds-tws-bluetooth-headphones-50-ms-low-latency-headset/p/itmec2bcf42de148?pid=ACCG9Q2GCZHZJYZV&amp;lid=LSTACCG9Q2GCZHZJYZVN7ESC5&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_5_178&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=902822d0-e210-4716-85f1-de2f72d318ba.ACCG9Q2GCZHZJYZV.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/wings-hawk-65ms-low-latency-bluetooth-gaming-headset/p/itm033aa1785a71a?pid=ACCGAEEWJZCUZHMC&amp;lid=LSTACCGAEEWJZCUZHMCS1CL5G&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_6_233&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6571dfa9-7532-4f7e-aa2b-d83fe797a026.ACCGAEEWJZCUZHMC.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/acescreen-grand-tws-power-bank-function-upto-75-hours-playtime-bluetooth-headset/p/itm8df7a4e74323f?pid=ACCGGHKCMRNNTAAJ&amp;lid=LSTACCGGHKCMRNNTAAJBNMWLK&amp;marketplace=FLIPKART&amp;q=acescreen+grand+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_1&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=94537b9f-c4ab-436a-b96a-e29b28d2d563.ACCGGHKCMRNNTAAJ.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;ssid=0n6d5dqqb40000001672921456380&amp;qH=0e2e17dd2ef1bd8f</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/acescreen-m10-earbuds-tws-buds-5-1-earbuds-280h-playtime-headphones-power-bank-bluetooth-headset/p/itm66fa2bbcd9488?pid=ACCGG4BNWEPHABMG&amp;lid=LSTACCGG4BNWEPHABMGVPB6UR&amp;marketplace=FLIPKART&amp;q=acescreen+m10+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_1_1&amp;otracker=AS_Query_OrganicAutoSuggest_1_13_na_na_na&amp;otracker1=AS_Query_OrganicAutoSuggest_1_13_na_na_na&amp;fm=search-autosuggest&amp;iid=c43caf17-e3fb-472d-a5b9-cdcedf5f6e8e.ACCGG4BNWEPHABMG.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;ssid=r0dsf9dt6o0000001672921493207&amp;qH=5804e8c31c86a92f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +434,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,22 +468,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,69 +814,640 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949DBCDC-4C29-448A-8524-92F10A1490B8}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAD9C9A-CB4A-4925-BA19-DE6D224CEF64}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -573,26 +1457,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -612,26 +1496,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,13 +11,15 @@
     <sheet name="Flipkart URL" sheetId="2" r:id="rId2"/>
     <sheet name="Amazon - Raw" sheetId="3" r:id="rId3"/>
     <sheet name="Flipkart - Raw" sheetId="4" r:id="rId4"/>
+    <sheet name="Amazon - Daily" sheetId="5" r:id="rId5"/>
+    <sheet name="Flipkart - Daily" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
   <si>
     <t>Brand</t>
   </si>
@@ -386,303 +388,6 @@
   </si>
   <si>
     <t>Rat - 5/1</t>
-  </si>
-  <si>
-    <t>1278</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>981</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>5717</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>5573</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>4819</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>2051</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>2430</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>997</t>
-  </si>
-  <si>
-    <t>4114</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>21430</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>4524</t>
-  </si>
-  <si>
-    <t>2226</t>
-  </si>
-  <si>
-    <t>2547</t>
-  </si>
-  <si>
-    <t>1613</t>
-  </si>
-  <si>
-    <t>1255</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>4248</t>
-  </si>
-  <si>
-    <t>3048</t>
-  </si>
-  <si>
-    <t>4527</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1188</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>1513</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>1175</t>
-  </si>
-  <si>
-    <t>2120</t>
-  </si>
-  <si>
-    <t>4096</t>
-  </si>
-  <si>
-    <t>7011</t>
-  </si>
-  <si>
-    <t>27372</t>
-  </si>
-  <si>
-    <t>14173</t>
-  </si>
-  <si>
-    <t>17045</t>
-  </si>
-  <si>
-    <t>10975</t>
-  </si>
-  <si>
-    <t>8026</t>
-  </si>
-  <si>
-    <t>4251</t>
-  </si>
-  <si>
-    <t>35364</t>
-  </si>
-  <si>
-    <t>23946</t>
-  </si>
-  <si>
-    <t>41532</t>
-  </si>
-  <si>
-    <t>2923</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>2329</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>10993</t>
-  </si>
-  <si>
-    <t>5056</t>
-  </si>
-  <si>
-    <t>9699</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>1214</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>560</t>
   </si>
 </sst>
 </file>
@@ -1750,11 +1455,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1278</v>
@@ -1764,11 +1469,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>426</v>
@@ -1778,11 +1483,11 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2102</v>
@@ -1792,11 +1497,11 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>146</v>
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>251</v>
@@ -1806,11 +1511,11 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>147</v>
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6">
         <v>145</v>
@@ -1820,11 +1525,11 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>705</v>
@@ -1834,11 +1539,11 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
         <v>451</v>
@@ -1848,11 +1553,11 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>150</v>
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9">
         <v>461</v>
@@ -1862,11 +1567,11 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>149</v>
@@ -1876,11 +1581,11 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>152</v>
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>526</v>
@@ -1890,11 +1595,11 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>153</v>
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>532</v>
@@ -1904,11 +1609,11 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" t="s">
-        <v>154</v>
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13">
         <v>389</v>
@@ -1918,11 +1623,11 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14">
         <v>981</v>
@@ -1932,11 +1637,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15">
         <v>274</v>
@@ -1946,11 +1651,11 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
         <v>135</v>
@@ -1960,11 +1665,11 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" t="s">
-        <v>158</v>
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17">
         <v>47</v>
@@ -1974,11 +1679,11 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" t="s">
-        <v>159</v>
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18">
         <v>183</v>
@@ -1988,11 +1693,11 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" t="s">
-        <v>160</v>
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>120</v>
@@ -2002,11 +1707,11 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" t="s">
-        <v>161</v>
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
       </c>
       <c r="C20">
         <v>5717</v>
@@ -2016,11 +1721,11 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" t="s">
-        <v>162</v>
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21">
         <v>42</v>
@@ -2057,11 +1762,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>250</v>
@@ -2071,11 +1776,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>424</v>
@@ -2085,11 +1790,11 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" t="s">
-        <v>194</v>
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>714</v>
@@ -2099,11 +1804,11 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" t="s">
-        <v>195</v>
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1193</v>
@@ -2113,11 +1818,11 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
-        <v>196</v>
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6">
         <v>4524</v>
@@ -2127,11 +1832,11 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" t="s">
-        <v>197</v>
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2226</v>
@@ -2141,11 +1846,11 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" t="s">
-        <v>198</v>
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2547</v>
@@ -2155,11 +1860,11 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" t="s">
-        <v>199</v>
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1613</v>
@@ -2169,11 +1874,11 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" t="s">
-        <v>200</v>
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
       <c r="C10">
         <v>1255</v>
@@ -2183,11 +1888,11 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" t="s">
-        <v>201</v>
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11">
         <v>585</v>
@@ -2197,11 +1902,11 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" t="s">
-        <v>202</v>
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12">
         <v>4248</v>
@@ -2211,11 +1916,11 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" t="s">
-        <v>203</v>
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>48</v>
       </c>
       <c r="C13">
         <v>3039</v>
@@ -2225,11 +1930,11 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" t="s">
-        <v>204</v>
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14">
         <v>4527</v>
@@ -2239,11 +1944,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>205</v>
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -2253,11 +1958,11 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" t="s">
-        <v>206</v>
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -2267,11 +1972,11 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>206</v>
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -2281,11 +1986,11 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" t="s">
-        <v>207</v>
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18">
         <v>121</v>
@@ -2295,11 +2000,11 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" t="s">
-        <v>208</v>
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>40</v>
@@ -2309,11 +2014,11 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" t="s">
-        <v>140</v>
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20">
         <v>21</v>
@@ -2323,11 +2028,11 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" t="s">
-        <v>209</v>
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -2337,11 +2042,11 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" t="s">
-        <v>210</v>
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22">
         <v>1188</v>
@@ -2351,11 +2056,11 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23">
         <v>489</v>
@@ -2365,11 +2070,11 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" t="s">
-        <v>212</v>
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24">
         <v>1513</v>
@@ -2379,11 +2084,11 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" t="s">
-        <v>213</v>
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25">
         <v>116</v>
@@ -2393,11 +2098,11 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" t="s">
-        <v>214</v>
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26">
         <v>18</v>
@@ -2407,11 +2112,11 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" t="s">
-        <v>215</v>
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27">
         <v>79</v>
@@ -2421,11 +2126,11 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>216</v>
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -2435,11 +2140,11 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" t="s">
-        <v>217</v>
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
       </c>
       <c r="C29">
         <v>305</v>
@@ -2449,11 +2154,11 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" t="s">
-        <v>218</v>
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30">
         <v>34</v>
@@ -2463,11 +2168,11 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" t="s">
-        <v>219</v>
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="C31">
         <v>58</v>
@@ -2477,11 +2182,11 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>220</v>
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32">
         <v>157</v>
@@ -2491,11 +2196,793 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1278</v>
+      </c>
+      <c r="D2">
+        <v>5573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>426</v>
+      </c>
+      <c r="D3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2102</v>
+      </c>
+      <c r="D4">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>251</v>
+      </c>
+      <c r="D5">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>145</v>
+      </c>
+      <c r="D6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>705</v>
+      </c>
+      <c r="D7">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>451</v>
+      </c>
+      <c r="D8">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>461</v>
+      </c>
+      <c r="D9">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>149</v>
+      </c>
+      <c r="D10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>526</v>
+      </c>
+      <c r="D11">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>532</v>
+      </c>
+      <c r="D12">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>389</v>
+      </c>
+      <c r="D13">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>981</v>
+      </c>
+      <c r="D14">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>274</v>
+      </c>
+      <c r="D15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>135</v>
+      </c>
+      <c r="D16">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>183</v>
+      </c>
+      <c r="D18">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5717</v>
+      </c>
+      <c r="D20">
+        <v>21431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>424</v>
+      </c>
+      <c r="D3">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>714</v>
+      </c>
+      <c r="D4">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1193</v>
+      </c>
+      <c r="D5">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4524</v>
+      </c>
+      <c r="D6">
+        <v>27372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2226</v>
+      </c>
+      <c r="D7">
+        <v>14173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2547</v>
+      </c>
+      <c r="D8">
+        <v>17045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1613</v>
+      </c>
+      <c r="D9">
+        <v>10975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1255</v>
+      </c>
+      <c r="D10">
+        <v>8026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>585</v>
+      </c>
+      <c r="D11">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4248</v>
+      </c>
+      <c r="D12">
+        <v>35364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>3039</v>
+      </c>
+      <c r="D13">
+        <v>23898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4527</v>
+      </c>
+      <c r="D14">
+        <v>41532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>192</v>
+      </c>
+      <c r="D15">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>191</v>
       </c>
-      <c r="B33" t="s">
-        <v>221</v>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>121</v>
+      </c>
+      <c r="D18">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1188</v>
+      </c>
+      <c r="D22">
+        <v>10993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>489</v>
+      </c>
+      <c r="D23">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1513</v>
+      </c>
+      <c r="D24">
+        <v>9699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>116</v>
+      </c>
+      <c r="D25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>305</v>
+      </c>
+      <c r="D29">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>157</v>
+      </c>
+      <c r="D32">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
       <c r="C33">
         <v>68</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="126">
   <si>
     <t>Brand</t>
   </si>
@@ -378,16 +378,25 @@
     <t>https://www.flipkart.com/wings-hawk-65ms-low-latency-bluetooth-gaming-headset/p/itm033aa1785a71a?pid=ACCGAEEWJZCUZHMC&amp;lid=LSTACCGAEEWJZCUZHMCS1CL5G&amp;marketplace=FLIPKART&amp;q=gaming+earbuds&amp;store=0pm%2Ffcn&amp;srno=s_6_233&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=6571dfa9-7532-4f7e-aa2b-d83fe797a026.ACCGAEEWJZCUZHMC.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;qH=fee236a6279bb73e</t>
   </si>
   <si>
+    <t>Rev - 9/1</t>
+  </si>
+  <si>
+    <t>Rat - 9/1</t>
+  </si>
+  <si>
+    <t>Rev - 7/1</t>
+  </si>
+  <si>
+    <t>Rat - 7/1</t>
+  </si>
+  <si>
     <t>Rev - 6/1</t>
   </si>
   <si>
     <t>Rat - 6/1</t>
   </si>
   <si>
-    <t>Rev - 5/1</t>
-  </si>
-  <si>
-    <t>Rat - 5/1</t>
+    <t>Weekly Sales (Ratings * 4)</t>
   </si>
 </sst>
 </file>
@@ -1434,13 +1443,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -1453,55 +1462,79 @@
       <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5591</v>
       </c>
       <c r="C2">
+        <v>1279</v>
+      </c>
+      <c r="D2">
+        <v>5580</v>
+      </c>
+      <c r="E2">
         <v>1278</v>
       </c>
-      <c r="D2">
-        <v>5573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>729</v>
       </c>
       <c r="C3">
+        <v>428</v>
+      </c>
+      <c r="D3">
+        <v>704</v>
+      </c>
+      <c r="E3">
         <v>426</v>
       </c>
-      <c r="D3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>0</v>
+        <v>2107</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4829</v>
       </c>
       <c r="C4">
+        <v>2103</v>
+      </c>
+      <c r="D4">
+        <v>4823</v>
+      </c>
+      <c r="E4">
         <v>2102</v>
       </c>
-      <c r="D4">
-        <v>4819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="C5">
         <v>251</v>
@@ -1509,139 +1542,199 @@
       <c r="D5">
         <v>808</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>251</v>
+      </c>
+      <c r="F5">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="C6">
+        <v>146</v>
+      </c>
+      <c r="D6">
+        <v>218</v>
+      </c>
+      <c r="E6">
         <v>145</v>
       </c>
-      <c r="D6">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2080</v>
       </c>
       <c r="C7">
+        <v>707</v>
+      </c>
+      <c r="D7">
+        <v>2054</v>
+      </c>
+      <c r="E7">
         <v>705</v>
       </c>
-      <c r="D7">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1474</v>
       </c>
       <c r="C8">
         <v>451</v>
       </c>
       <c r="D8">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1462</v>
+      </c>
+      <c r="E8">
+        <v>451</v>
+      </c>
+      <c r="F8">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="C9">
+        <v>462</v>
+      </c>
+      <c r="D9">
+        <v>897</v>
+      </c>
+      <c r="E9">
         <v>461</v>
       </c>
-      <c r="D9">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="C10">
         <v>149</v>
       </c>
       <c r="D10">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>421</v>
+      </c>
+      <c r="E10">
+        <v>149</v>
+      </c>
+      <c r="F10">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2486</v>
       </c>
       <c r="C11">
+        <v>528</v>
+      </c>
+      <c r="D11">
+        <v>2444</v>
+      </c>
+      <c r="E11">
         <v>526</v>
       </c>
-      <c r="D11">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1201</v>
       </c>
       <c r="C12">
         <v>532</v>
       </c>
       <c r="D12">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1195</v>
+      </c>
+      <c r="E12">
+        <v>532</v>
+      </c>
+      <c r="F12">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C13">
         <v>389</v>
       </c>
       <c r="D13">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>998</v>
+      </c>
+      <c r="E13">
+        <v>389</v>
+      </c>
+      <c r="F13">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4121</v>
       </c>
       <c r="C14">
+        <v>982</v>
+      </c>
+      <c r="D14">
+        <v>4118</v>
+      </c>
+      <c r="E14">
         <v>981</v>
       </c>
-      <c r="D14">
-        <v>4114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="C15">
         <v>274</v>
@@ -1649,13 +1742,19 @@
       <c r="D15">
         <v>759</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>274</v>
+      </c>
+      <c r="F15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="C16">
         <v>135</v>
@@ -1663,13 +1762,19 @@
       <c r="D16">
         <v>789</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>135</v>
+      </c>
+      <c r="F16">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C17">
         <v>47</v>
@@ -1677,13 +1782,19 @@
       <c r="D17">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C18">
         <v>183</v>
@@ -1691,13 +1802,19 @@
       <c r="D18">
         <v>554</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>183</v>
+      </c>
+      <c r="F18">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C19">
         <v>120</v>
@@ -1705,33 +1822,51 @@
       <c r="D19">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>0</v>
+        <v>5750</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>21566</v>
       </c>
       <c r="C20">
-        <v>5717</v>
+        <v>5722</v>
       </c>
       <c r="D20">
-        <v>21431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>21464</v>
+      </c>
+      <c r="E20">
+        <v>5718</v>
+      </c>
+      <c r="F20">
+        <v>21462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="C21">
         <v>42</v>
       </c>
       <c r="D21">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1741,13 +1876,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -1760,13 +1895,19 @@
       <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="C2">
         <v>250</v>
@@ -1774,13 +1915,19 @@
       <c r="D2">
         <v>1175</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="C3">
         <v>424</v>
@@ -1788,13 +1935,19 @@
       <c r="D3">
         <v>2120</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>424</v>
+      </c>
+      <c r="F3">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="C4">
         <v>714</v>
@@ -1802,27 +1955,39 @@
       <c r="D4">
         <v>4096</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>714</v>
+      </c>
+      <c r="F4">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
-        <v>0</v>
+        <v>1197</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7050</v>
       </c>
       <c r="C5">
+        <v>1197</v>
+      </c>
+      <c r="D5">
+        <v>7050</v>
+      </c>
+      <c r="E5">
         <v>1193</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>7011</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
-        <v>0</v>
+        <v>4541</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>27552</v>
       </c>
       <c r="C6">
         <v>4524</v>
@@ -1830,13 +1995,19 @@
       <c r="D6">
         <v>27372</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>4524</v>
+      </c>
+      <c r="F6">
+        <v>27372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
-        <v>0</v>
+        <v>2232</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>14249</v>
       </c>
       <c r="C7">
         <v>2226</v>
@@ -1844,13 +2015,19 @@
       <c r="D7">
         <v>14173</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>2226</v>
+      </c>
+      <c r="F7">
+        <v>14173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>0</v>
+        <v>2547</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>17045</v>
       </c>
       <c r="C8">
         <v>2547</v>
@@ -1858,13 +2035,19 @@
       <c r="D8">
         <v>17045</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>2547</v>
+      </c>
+      <c r="F8">
+        <v>17045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
-        <v>0</v>
+        <v>1639</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>11051</v>
       </c>
       <c r="C9">
         <v>1613</v>
@@ -1872,27 +2055,39 @@
       <c r="D9">
         <v>10975</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1613</v>
+      </c>
+      <c r="F9">
+        <v>10975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>8079</v>
       </c>
       <c r="C10">
+        <v>1257</v>
+      </c>
+      <c r="D10">
+        <v>8052</v>
+      </c>
+      <c r="E10">
         <v>1255</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>8026</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4251</v>
       </c>
       <c r="C11">
         <v>585</v>
@@ -1900,13 +2095,19 @@
       <c r="D11">
         <v>4251</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>585</v>
+      </c>
+      <c r="F11">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>0</v>
+        <v>4248</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>35364</v>
       </c>
       <c r="C12">
         <v>4248</v>
@@ -1914,41 +2115,59 @@
       <c r="D12">
         <v>35364</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>4248</v>
+      </c>
+      <c r="F12">
+        <v>35364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>9</v>
+        <v>3048</v>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>23946</v>
       </c>
       <c r="C13">
-        <v>3039</v>
+        <v>3048</v>
       </c>
       <c r="D13">
-        <v>23898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>23946</v>
+      </c>
+      <c r="E13">
+        <v>3048</v>
+      </c>
+      <c r="F13">
+        <v>23946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
-        <v>0</v>
+        <v>4546</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>41791</v>
       </c>
       <c r="C14">
+        <v>4535</v>
+      </c>
+      <c r="D14">
+        <v>41608</v>
+      </c>
+      <c r="E14">
         <v>4527</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>41532</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2957</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -1956,13 +2175,19 @@
       <c r="D15">
         <v>2923</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>192</v>
+      </c>
+      <c r="F15">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1970,13 +2195,19 @@
       <c r="D16">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1984,13 +2215,19 @@
       <c r="D17">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2329</v>
       </c>
       <c r="C18">
         <v>121</v>
@@ -1998,27 +2235,39 @@
       <c r="D18">
         <v>2329</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>121</v>
+      </c>
+      <c r="F18">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="C19">
         <v>40</v>
       </c>
       <c r="D19">
+        <v>909</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C20">
         <v>21</v>
@@ -2026,13 +2275,19 @@
       <c r="D20">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -2040,13 +2295,19 @@
       <c r="D21">
         <v>446</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
-        <v>0</v>
+        <v>1188</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>10993</v>
       </c>
       <c r="C22">
         <v>1188</v>
@@ -2054,13 +2315,19 @@
       <c r="D22">
         <v>10993</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>1188</v>
+      </c>
+      <c r="F22">
+        <v>10993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5134</v>
       </c>
       <c r="C23">
         <v>489</v>
@@ -2068,27 +2335,39 @@
       <c r="D23">
         <v>5056</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>489</v>
+      </c>
+      <c r="F23">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>9759</v>
       </c>
       <c r="C24">
+        <v>1516</v>
+      </c>
+      <c r="D24">
+        <v>9755</v>
+      </c>
+      <c r="E24">
         <v>1513</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>9699</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="C25">
         <v>116</v>
@@ -2096,13 +2375,19 @@
       <c r="D25">
         <v>1022</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>116</v>
+      </c>
+      <c r="F25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C26">
         <v>18</v>
@@ -2110,27 +2395,39 @@
       <c r="D26">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="C27">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>506</v>
+      </c>
+      <c r="E27">
+        <v>80</v>
+      </c>
+      <c r="F27">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -2138,27 +2435,39 @@
       <c r="D28">
         <v>194</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="C29">
         <v>305</v>
       </c>
       <c r="D29">
+        <v>1213</v>
+      </c>
+      <c r="E29">
+        <v>305</v>
+      </c>
+      <c r="F29">
         <v>1214</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="C30">
         <v>34</v>
@@ -2166,27 +2475,39 @@
       <c r="D30">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="C31">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>306</v>
+      </c>
+      <c r="E31">
         <v>58</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:6">
       <c r="A32">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="C32">
         <v>157</v>
@@ -2194,18 +2515,30 @@
       <c r="D32">
         <v>886</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>157</v>
+      </c>
+      <c r="F32">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="C33">
         <v>68</v>
       </c>
       <c r="D33">
+        <v>560</v>
+      </c>
+      <c r="E33">
+        <v>68</v>
+      </c>
+      <c r="F33">
         <v>560</v>
       </c>
     </row>
@@ -2216,782 +2549,1324 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>5591</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>729</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>4829</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>810</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>241</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>2080</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>1474</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>906</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>421</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>2486</v>
+      </c>
+      <c r="E11">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>1201</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>1002</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>4121</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>760</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>790</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>122</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1278</v>
-      </c>
-      <c r="D2">
-        <v>5573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>426</v>
-      </c>
-      <c r="D3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2102</v>
-      </c>
-      <c r="D4">
-        <v>4819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>251</v>
-      </c>
-      <c r="D5">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>145</v>
-      </c>
-      <c r="D6">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>705</v>
-      </c>
-      <c r="D7">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>451</v>
-      </c>
-      <c r="D8">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>461</v>
-      </c>
-      <c r="D9">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>149</v>
-      </c>
-      <c r="D10">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>526</v>
-      </c>
-      <c r="D11">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>532</v>
-      </c>
-      <c r="D12">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>389</v>
-      </c>
-      <c r="D13">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>981</v>
-      </c>
-      <c r="D14">
-        <v>4114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>274</v>
-      </c>
-      <c r="D15">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>135</v>
-      </c>
-      <c r="D16">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>47</v>
-      </c>
-      <c r="D17">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>183</v>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D18">
         <v>554</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>120</v>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D19">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>5717</v>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>21431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>42</v>
+        <v>21566</v>
+      </c>
+      <c r="E20">
+        <v>102</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>21462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>250</v>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D2">
         <v>1175</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>424</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D3">
         <v>2120</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>714</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D4">
         <v>4096</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1193</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D5">
+        <v>7050</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>39</v>
+      </c>
+      <c r="G5">
         <v>7011</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>4524</v>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D6">
+        <v>27552</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>27372</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2226</v>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D7">
+        <v>14249</v>
+      </c>
+      <c r="E7">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>14173</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>2547</v>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D8">
         <v>17045</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1613</v>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>17045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D9">
+        <v>11051</v>
+      </c>
+      <c r="E9">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>10975</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1255</v>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D10">
+        <v>8079</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
         <v>8026</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>585</v>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D11">
         <v>4251</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>4248</v>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D12">
         <v>35364</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>48</v>
-      </c>
-      <c r="C13">
-        <v>3039</v>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>35364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D13">
-        <v>23898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>4527</v>
+        <v>23946</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>23946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D14">
+        <v>41791</v>
+      </c>
+      <c r="E14">
+        <v>183</v>
+      </c>
+      <c r="F14">
+        <v>76</v>
+      </c>
+      <c r="G14">
         <v>41532</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>192</v>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D15">
+        <v>2957</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>2923</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D16">
+        <v>196</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D17">
+        <v>196</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>121</v>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D18">
         <v>2329</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>40</v>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D19">
+        <v>909</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>21</v>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D20">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D21">
         <v>446</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1188</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D22">
         <v>10993</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>489</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>10993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D23">
+        <v>5134</v>
+      </c>
+      <c r="E23">
+        <v>78</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>5056</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1513</v>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D24">
+        <v>9759</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>56</v>
+      </c>
+      <c r="G24">
         <v>9699</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>116</v>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D25">
         <v>1022</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>18</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D26">
+        <v>147</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27">
+        <v>506</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>79</v>
-      </c>
-      <c r="D27">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>14</v>
+      <c r="G27">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D28">
         <v>194</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>305</v>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D29">
+        <v>1213</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
         <v>1214</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>34</v>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D30">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>58</v>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D31">
+        <v>306</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>157</v>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D32">
         <v>886</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>68</v>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D33">
+        <v>562</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>560</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>